--- a/sensor test 1.0 .xlsx
+++ b/sensor test 1.0 .xlsx
@@ -164,7 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -217,7 +217,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="28.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>

--- a/sensor test 1.0 .xlsx
+++ b/sensor test 1.0 .xlsx
@@ -14,62 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t xml:space="preserve"> Tested Sensors Overview</t>
   </si>
   <si>
-    <t>Sensor</t>
-  </si>
-  <si>
-    <t>I2C Functionality</t>
-  </si>
-  <si>
-    <t>Window Interference</t>
-  </si>
-  <si>
-    <t>Performance Summary</t>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>i2c_functionality</t>
+  </si>
+  <si>
+    <t>perfomace_summary</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
   <si>
     <t>SEN0381</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Working</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">🟢 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Not affected</t>
-    </r>
+    <t>✅ Working</t>
   </si>
   <si>
     <t>Stable and accurate; strong candidate</t>
@@ -78,46 +43,13 @@
     <t>SEN0531</t>
   </si>
   <si>
-    <t>✅ Working</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">🔴 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Affected</t>
-    </r>
-  </si>
-  <si>
     <t>Works, but laser reflections off glass interfere</t>
   </si>
   <si>
     <t>VL53L0X</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">❌ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>I2C failure</t>
-    </r>
-  </si>
-  <si>
-    <t>–</t>
+    <t>❌ I2C failure</t>
   </si>
   <si>
     <t>Unable to detect on I2C bus; hardware issue suspected</t>
@@ -133,6 +65,33 @@
   </si>
   <si>
     <t>Stable, but still affected by transparent surfaces</t>
+  </si>
+  <si>
+    <t>Affected</t>
+  </si>
+  <si>
+    <t>High accuracy, needs calibration in special environments</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:20:41</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:20:46</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:20:51</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:26:20</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:26:25</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:26:30</t>
   </si>
 </sst>
 </file>
@@ -140,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +108,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -165,6 +122,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -196,16 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -216,8 +179,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,33 +487,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="43.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -561,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -571,64 +537,306 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="3">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="3">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A8" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="62.25" customFormat="1" s="1">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="62.25" customFormat="1" s="1">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="62.25" customFormat="1" s="1">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sensor test 1.0 .xlsx
+++ b/sensor test 1.0 .xlsx
@@ -115,6 +115,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
@@ -122,12 +128,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,14 +167,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -493,10 +490,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="43.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -507,7 +504,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -587,133 +584,133 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="62.25" customFormat="1" s="1">
-      <c r="A11" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="62.25" customFormat="1" s="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="62.25" customFormat="1" s="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -727,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -741,7 +738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -755,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -769,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -783,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -797,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -811,7 +808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -825,7 +822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
